--- a/data/trans_orig/P25A$medico-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P25A$medico-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>16613</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9643</v>
+        <v>10415</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26337</v>
+        <v>25851</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1732670113377834</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1005732383450727</v>
+        <v>0.108625254247067</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2746924694318819</v>
+        <v>0.2696227213414513</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6197</v>
+        <v>6622</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05334723851445859</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1628015198219342</v>
+        <v>0.1739475750941953</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -785,19 +785,19 @@
         <v>18643</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10955</v>
+        <v>11215</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27769</v>
+        <v>28939</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1391863174877105</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08178699917792503</v>
+        <v>0.08373174670392089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2073189140933498</v>
+        <v>0.2160530794799122</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>15487</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9118</v>
+        <v>8751</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25046</v>
+        <v>24635</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1615276100468119</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09509663026888314</v>
+        <v>0.09127036661386805</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2612201117301094</v>
+        <v>0.256938688820525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5888</v>
+        <v>6019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0513903823867569</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1546703362632829</v>
+        <v>0.1581132987124612</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -856,19 +856,19 @@
         <v>17443</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10445</v>
+        <v>10685</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26231</v>
+        <v>26658</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1302270742885584</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07798145116607505</v>
+        <v>0.07977310038115849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1958315337442788</v>
+        <v>0.1990193101948907</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>2754</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7883</v>
+        <v>8483</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02872237364984071</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008687272808593374</v>
+        <v>0.00867745192895931</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08222322961957029</v>
+        <v>0.08847357041645827</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -906,19 +906,19 @@
         <v>3106</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8307</v>
+        <v>7512</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08160152103162653</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02663714122954399</v>
+        <v>0.02617915181709001</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2182166795814537</v>
+        <v>0.197346460258144</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -927,19 +927,19 @@
         <v>5860</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2144</v>
+        <v>2649</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11681</v>
+        <v>12070</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04375040439525085</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01600973609819319</v>
+        <v>0.01977781858427631</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08721026856822246</v>
+        <v>0.09011466054096852</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>9490</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4890</v>
+        <v>4667</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15671</v>
+        <v>16359</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09898000763679463</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05100106764812831</v>
+        <v>0.04867531188058142</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1634497297080506</v>
+        <v>0.1706227467603463</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7116</v>
+        <v>7986</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06229775888472945</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1869360324166756</v>
+        <v>0.2097778569109589</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -998,19 +998,19 @@
         <v>11862</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6698</v>
+        <v>6746</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20493</v>
+        <v>19893</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08855506719521142</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05000685342416026</v>
+        <v>0.05036466620814955</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1529922423421315</v>
+        <v>0.1485155511690331</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6555</v>
+        <v>6537</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01967254437272966</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06837020590139078</v>
+        <v>0.06817589794067057</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1048,19 +1048,19 @@
         <v>4003</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1112</v>
+        <v>1824</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9508</v>
+        <v>9972</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1051495137346565</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02921257256168651</v>
+        <v>0.04791989817846617</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2497595920570656</v>
+        <v>0.261970543520568</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1069,19 +1069,19 @@
         <v>5889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2241</v>
+        <v>1944</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12231</v>
+        <v>12655</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04396473869124053</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01673414343003917</v>
+        <v>0.01451066547548549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09131158308695363</v>
+        <v>0.0944759685021558</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>62771</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>52546</v>
+        <v>52088</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>71229</v>
+        <v>71180</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6546855126525568</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5480414041545795</v>
+        <v>0.5432635967079115</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7429035318754109</v>
+        <v>0.7423897722358519</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -1119,19 +1119,19 @@
         <v>25745</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19706</v>
+        <v>19729</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30973</v>
+        <v>31054</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6763115097216856</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5176602249974938</v>
+        <v>0.5182700824721673</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8136472397450568</v>
+        <v>0.8157723070581914</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -1140,19 +1140,19 @@
         <v>88515</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>76961</v>
+        <v>76186</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>98609</v>
+        <v>98933</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6608315298435784</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5745736293431997</v>
+        <v>0.5687847830775101</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7361934939643405</v>
+        <v>0.7386124633099543</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>11686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6577</v>
+        <v>6595</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19454</v>
+        <v>19812</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1463675654832257</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08237859060411841</v>
+        <v>0.08260427075309305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2436685099564307</v>
+        <v>0.2481504870025423</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6890</v>
+        <v>6095</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04922862195331317</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1702901536553785</v>
+        <v>0.1506318639227205</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1215,19 +1215,19 @@
         <v>13678</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7661</v>
+        <v>7884</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21650</v>
+        <v>22640</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1136948143388209</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06368249235811904</v>
+        <v>0.06553433804725491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1799618772643374</v>
+        <v>0.1881926128466238</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>15495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9226</v>
+        <v>9832</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23242</v>
+        <v>24272</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1940751726854727</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1155592112295739</v>
+        <v>0.1231529192157551</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2911113689208689</v>
+        <v>0.3040213954942684</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1265,19 +1265,19 @@
         <v>8317</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3854</v>
+        <v>4004</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13865</v>
+        <v>14785</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2055496378936342</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09525930282647493</v>
+        <v>0.09896591255486756</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3426621910869506</v>
+        <v>0.3653875338994462</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -1286,19 +1286,19 @@
         <v>23812</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15808</v>
+        <v>15959</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34131</v>
+        <v>33469</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1979346170302215</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1314034299156931</v>
+        <v>0.132662189534122</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2837135806075666</v>
+        <v>0.278213920580853</v>
       </c>
     </row>
     <row r="12">
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7708</v>
+        <v>5236</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01298701639246027</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0965493252198342</v>
+        <v>0.06558822258309106</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1336,19 +1336,19 @@
         <v>5986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2055</v>
+        <v>2018</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11833</v>
+        <v>11563</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1479350161499769</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05079450938865581</v>
+        <v>0.04988447957431331</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2924472918989482</v>
+        <v>0.2857733761450219</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1357,19 +1357,19 @@
         <v>7023</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3078</v>
+        <v>3250</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14298</v>
+        <v>14459</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05837686986718759</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02558389966269206</v>
+        <v>0.02701799836395498</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1188516495551004</v>
+        <v>0.1201873254298241</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>6671</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2580</v>
+        <v>2726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13998</v>
+        <v>13900</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08355210570111828</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03231596676454818</v>
+        <v>0.03414858243162375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1753361137737152</v>
+        <v>0.1740971130291405</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1407,19 +1407,19 @@
         <v>6757</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2600</v>
+        <v>2571</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12650</v>
+        <v>12771</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1670012060819876</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06424640723073602</v>
+        <v>0.06352939017185265</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3126308523229427</v>
+        <v>0.3156330831844175</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1428,19 +1428,19 @@
         <v>13428</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6911</v>
+        <v>8042</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22354</v>
+        <v>22392</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1116202685912058</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05744514677600177</v>
+        <v>0.06685245727968135</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1858176244570559</v>
+        <v>0.1861362608181564</v>
       </c>
     </row>
     <row r="14">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4937</v>
+        <v>5244</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01239169034604414</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06184023146282587</v>
+        <v>0.06568905109995597</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4151</v>
+        <v>4158</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01985271142910959</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1025911661627621</v>
+        <v>0.1027666762280285</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6419</v>
+        <v>5905</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01490120997094195</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05336142276147143</v>
+        <v>0.04908573904677208</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>55856</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47211</v>
+        <v>46894</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>63879</v>
+        <v>62866</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6996110872107052</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5913317169819888</v>
+        <v>0.5873590805513487</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8001024529976927</v>
+        <v>0.7874139847541302</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>24</v>
@@ -1549,19 +1549,19 @@
         <v>24774</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18709</v>
+        <v>18486</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>31003</v>
+        <v>30499</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6122554562186397</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4623625616267047</v>
+        <v>0.4568531435236106</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7662118071997909</v>
+        <v>0.7537520263874892</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>76</v>
@@ -1570,19 +1570,19 @@
         <v>80629</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>70498</v>
+        <v>69029</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>91154</v>
+        <v>90251</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6702289600354461</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5860108533881411</v>
+        <v>0.5738056921162844</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7577176545709926</v>
+        <v>0.7502132583203321</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>25538</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17634</v>
+        <v>18142</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35154</v>
+        <v>35292</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2393346860586068</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1652609920490709</v>
+        <v>0.1700261065268218</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3294524733000728</v>
+        <v>0.3307438999951962</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5624</v>
+        <v>5668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04629964076157084</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2307376649316289</v>
+        <v>0.2325077876665183</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1645,19 +1645,19 @@
         <v>26667</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18210</v>
+        <v>18269</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37151</v>
+        <v>36343</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2034373873342717</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1389217410429376</v>
+        <v>0.1393749029797817</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2834255653626199</v>
+        <v>0.2772592643887236</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>32611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24253</v>
+        <v>24152</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43545</v>
+        <v>42537</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3056227769438322</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2272967989958894</v>
+        <v>0.2263468263335379</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4080872989072252</v>
+        <v>0.3986459972480568</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1695,19 +1695,19 @@
         <v>4241</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1155</v>
+        <v>1039</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9302</v>
+        <v>8595</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1739697915532628</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0473652239236927</v>
+        <v>0.04263545584434871</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3815983008038331</v>
+        <v>0.3526116297941157</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1716,19 +1716,19 @@
         <v>36852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27498</v>
+        <v>26929</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47460</v>
+        <v>48355</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2811402456125727</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2097803553624633</v>
+        <v>0.2054380367868756</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3620674268966174</v>
+        <v>0.3688965261824186</v>
       </c>
     </row>
     <row r="18">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5646</v>
+        <v>5880</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0107653109076311</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05291546076721844</v>
+        <v>0.05510454769657527</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1766,19 +1766,19 @@
         <v>4264</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9594</v>
+        <v>9459</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1749240961347193</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04520437263969788</v>
+        <v>0.04469690763204986</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3935861814864661</v>
+        <v>0.3880558719157661</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1787,19 +1787,19 @@
         <v>5413</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2075</v>
+        <v>2037</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11413</v>
+        <v>11332</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04129270525953762</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0158273831470226</v>
+        <v>0.01554195545574071</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08706637613248433</v>
+        <v>0.08645397668196117</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>10106</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5009</v>
+        <v>4931</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17906</v>
+        <v>16830</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09471514150936479</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04693997781575569</v>
+        <v>0.04621490145856425</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1678085213469177</v>
+        <v>0.1577260251878354</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5210</v>
+        <v>3331</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03280705473226791</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2137350334322924</v>
+        <v>0.1366537278649392</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1858,19 +1858,19 @@
         <v>10906</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6244</v>
+        <v>5628</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19180</v>
+        <v>17949</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08320255279227534</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04763868144007292</v>
+        <v>0.04293906187600129</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1463223664900868</v>
+        <v>0.1369298137629801</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>5726</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2077</v>
+        <v>2087</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11787</v>
+        <v>11309</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05366418997505944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0194631499162739</v>
+        <v>0.01955755642620449</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1104635670429154</v>
+        <v>0.1059813878565988</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1908,19 +1908,19 @@
         <v>3027</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7545</v>
+        <v>7588</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1241967425223441</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03627615356941555</v>
+        <v>0.03591917049099501</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3095294776628228</v>
+        <v>0.3112817793567116</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1929,19 +1929,19 @@
         <v>8754</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4131</v>
+        <v>3926</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15847</v>
+        <v>15481</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06678060676188534</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03151751933044306</v>
+        <v>0.0299482623005542</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1208943781708155</v>
+        <v>0.1181026173031988</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>57582</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>47459</v>
+        <v>47077</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>68043</v>
+        <v>68215</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5396393792687617</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4447708642477325</v>
+        <v>0.4411900509533655</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6376799201588464</v>
+        <v>0.6392947213820998</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1979,19 +1979,19 @@
         <v>13001</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7756</v>
+        <v>7957</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17459</v>
+        <v>18182</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5333569507598291</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3181726855540442</v>
+        <v>0.3264129538434753</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7162473579187555</v>
+        <v>0.7458794912301108</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>69</v>
@@ -2000,19 +2000,19 @@
         <v>70583</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>59949</v>
+        <v>59722</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>81739</v>
+        <v>81961</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5384710825351172</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4573501704408684</v>
+        <v>0.4556132217350623</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6235832176325599</v>
+        <v>0.6252732282174258</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>88213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74388</v>
+        <v>74213</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103386</v>
+        <v>103259</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3241693290558039</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2733655270637284</v>
+        <v>0.2727224944384921</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3799276397561257</v>
+        <v>0.3794614999368014</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2054,19 +2054,19 @@
         <v>3707</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1156</v>
+        <v>1030</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10021</v>
+        <v>10181</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05851871186638805</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01824259507792855</v>
+        <v>0.01625848311417973</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1582051049810369</v>
+        <v>0.1607356935741024</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>96</v>
@@ -2075,19 +2075,19 @@
         <v>91920</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>75560</v>
+        <v>77489</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107058</v>
+        <v>109353</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2740081561485946</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2252414127005871</v>
+        <v>0.2309902971932728</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3191352331246027</v>
+        <v>0.325975791129111</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>47744</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36584</v>
+        <v>37022</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>60760</v>
+        <v>61825</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1754538285181207</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1344398246219134</v>
+        <v>0.1360504877648564</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2232821946896719</v>
+        <v>0.2271988554078407</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2125,19 +2125,19 @@
         <v>10938</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5867</v>
+        <v>5857</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18334</v>
+        <v>18179</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1726715262581058</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09261915187317342</v>
+        <v>0.09246326427112253</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2894351959377931</v>
+        <v>0.2869974234832565</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>60</v>
@@ -2146,19 +2146,19 @@
         <v>58682</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>45422</v>
+        <v>46122</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>73551</v>
+        <v>72830</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1749284634870836</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1354007995528041</v>
+        <v>0.1374875638398835</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2192531187391161</v>
+        <v>0.2171032301483969</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>9374</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4483</v>
+        <v>4389</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17043</v>
+        <v>17605</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03444975028097691</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01647498329329868</v>
+        <v>0.01613069434713867</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06262987406425657</v>
+        <v>0.06469621346871966</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -2196,19 +2196,19 @@
         <v>6790</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2862</v>
+        <v>2771</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14021</v>
+        <v>13753</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1071942548229008</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04518329296742899</v>
+        <v>0.04374081054932092</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2213533212582618</v>
+        <v>0.2171130069663677</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -2217,19 +2217,19 @@
         <v>16165</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9684</v>
+        <v>9058</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>27025</v>
+        <v>26701</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04818564786323218</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02886787751373165</v>
+        <v>0.02700129844214382</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08055901172727341</v>
+        <v>0.07959533451357514</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>18430</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10633</v>
+        <v>11720</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27500</v>
+        <v>27946</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0677262939164464</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03907372115310925</v>
+        <v>0.04306756464899638</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1010573713833756</v>
+        <v>0.1026975258365989</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8099</v>
+        <v>8243</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03892924454756382</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1278555471634475</v>
+        <v>0.1301361702007765</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -2288,19 +2288,19 @@
         <v>20896</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12593</v>
+        <v>13739</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>31634</v>
+        <v>31637</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06228872411934708</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0375382304233076</v>
+        <v>0.04095647060336943</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09429918332405963</v>
+        <v>0.09430740607574128</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>8537</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3883</v>
+        <v>4367</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15485</v>
+        <v>16541</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03137049747450639</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01426966008898894</v>
+        <v>0.01604961129824705</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05690651063834352</v>
+        <v>0.06078465474589342</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2338,19 +2338,19 @@
         <v>2918</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8799</v>
+        <v>7998</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04606094614108356</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01464612200717746</v>
+        <v>0.01455091904704509</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1389168611785487</v>
+        <v>0.1262600812748345</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2359,19 +2359,19 @@
         <v>11454</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6561</v>
+        <v>5981</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18864</v>
+        <v>19049</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03414440458394569</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01955858822969511</v>
+        <v>0.01782853319301415</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05623151919780962</v>
+        <v>0.05678403481278301</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2388,19 @@
         <v>144359</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>128450</v>
+        <v>127135</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>160090</v>
+        <v>158953</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5304992946451879</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4720356854345188</v>
+        <v>0.4672016467801302</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5883048748484512</v>
+        <v>0.584129800363701</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>45</v>
@@ -2409,19 +2409,19 @@
         <v>46196</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>38700</v>
+        <v>38357</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>53001</v>
+        <v>52809</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7292963708825543</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6109580951409924</v>
+        <v>0.6055374616276823</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8367280136376153</v>
+        <v>0.8336933642231161</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>188</v>
@@ -2430,19 +2430,19 @@
         <v>190555</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>172421</v>
+        <v>172539</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>208676</v>
+        <v>208317</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5680369244090215</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5139792671165183</v>
+        <v>0.5143318833067657</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6220527299425723</v>
+        <v>0.6209843215226148</v>
       </c>
     </row>
     <row r="28">
@@ -2463,19 +2463,19 @@
         <v>27450</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20515</v>
+        <v>19627</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35939</v>
+        <v>34459</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4316886994049743</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3226305435807289</v>
+        <v>0.3086563910464827</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5652018080353062</v>
+        <v>0.541916315209081</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2484,19 +2484,19 @@
         <v>4972</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1856</v>
+        <v>1898</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10167</v>
+        <v>11066</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1400717515376097</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05228884728187001</v>
+        <v>0.05346420253278307</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2864188320858568</v>
+        <v>0.311754065731602</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -2505,19 +2505,19 @@
         <v>32422</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>23842</v>
+        <v>23531</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>41873</v>
+        <v>41829</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3272154110350196</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2406250101359813</v>
+        <v>0.2374883505518621</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4226037467609915</v>
+        <v>0.4221529858232902</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>5548</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1900</v>
+        <v>2125</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10676</v>
+        <v>11394</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08724934268150132</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02987992233495439</v>
+        <v>0.03341761036375638</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1679031322274347</v>
+        <v>0.17918179997802</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -2555,19 +2555,19 @@
         <v>7075</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3117</v>
+        <v>3275</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12346</v>
+        <v>13619</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1993084799978729</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08780800629754001</v>
+        <v>0.0922515127665615</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3477968241555771</v>
+        <v>0.383653627843217</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -2576,19 +2576,19 @@
         <v>12623</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7338</v>
+        <v>7085</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20524</v>
+        <v>20077</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1273951114818332</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07405593366964845</v>
+        <v>0.07150089756314017</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2071392947570539</v>
+        <v>0.2026226689078701</v>
       </c>
     </row>
     <row r="30">
@@ -2618,19 +2618,19 @@
         <v>2912</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7014</v>
+        <v>7852</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08202735491349313</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02639583483618863</v>
+        <v>0.02649803702458362</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.19759921412145</v>
+        <v>0.2211925659871765</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2639,19 +2639,19 @@
         <v>2912</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7833</v>
+        <v>7923</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02938672654923922</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009387529191870718</v>
+        <v>0.009473740345421474</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07905206070388374</v>
+        <v>0.07996482615706446</v>
       </c>
     </row>
     <row r="31">
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7154</v>
+        <v>7206</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03090696326432785</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1125008541756553</v>
+        <v>0.1133310212354011</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2689,19 +2689,19 @@
         <v>3788</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>994</v>
+        <v>1634</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8217</v>
+        <v>8957</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1067073219693524</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02800299393950091</v>
+        <v>0.04604391200152098</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2314748671102631</v>
+        <v>0.2523376145273066</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -2710,19 +2710,19 @@
         <v>5753</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2065</v>
+        <v>1995</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12069</v>
+        <v>10914</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05806283603321052</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02083615261860302</v>
+        <v>0.02013294081197735</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1218042930834919</v>
+        <v>0.1101518367277586</v>
       </c>
     </row>
     <row r="32">
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6193</v>
+        <v>6687</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02918172825585</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0973980845590988</v>
+        <v>0.1051673711320045</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6370</v>
+        <v>6390</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01872722232434388</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06428884323977356</v>
+        <v>0.06449567317284091</v>
       </c>
     </row>
     <row r="33">
@@ -2802,19 +2802,19 @@
         <v>33845</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>25318</v>
+        <v>26111</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>41167</v>
+        <v>42725</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.532268844344857</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3981703638395109</v>
+        <v>0.4106288066247437</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6474126090385198</v>
+        <v>0.6719139181698142</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>22</v>
@@ -2823,19 +2823,19 @@
         <v>22610</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>16281</v>
+        <v>16106</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>27867</v>
+        <v>27570</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6369537612989719</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4586530121729724</v>
+        <v>0.4537156727988833</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7850550359054494</v>
+        <v>0.7766802127576887</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>54</v>
@@ -2844,19 +2844,19 @@
         <v>56455</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>46677</v>
+        <v>45494</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>65935</v>
+        <v>66189</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5697727603446444</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4710819314934935</v>
+        <v>0.4591426717513811</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.665441147749253</v>
+        <v>0.6680080134213758</v>
       </c>
     </row>
     <row r="34">
@@ -2890,19 +2890,19 @@
         <v>7221</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2889</v>
+        <v>3166</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13101</v>
+        <v>13138</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1474052273453834</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0589730762361419</v>
+        <v>0.06463361415335649</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2674339640203302</v>
+        <v>0.2681886324131123</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -2911,19 +2911,19 @@
         <v>7221</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2927</v>
+        <v>3015</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12927</v>
+        <v>13473</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1324607709961813</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05369771007885497</v>
+        <v>0.05530882180736856</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2371278751041124</v>
+        <v>0.2471498251253443</v>
       </c>
     </row>
     <row r="35">
@@ -2953,19 +2953,19 @@
         <v>3872</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9704</v>
+        <v>8955</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07904281917426403</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0198000272543802</v>
+        <v>0.01971561621955076</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1980859778755733</v>
+        <v>0.1828046946837968</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4</v>
@@ -2974,19 +2974,19 @@
         <v>3872</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8725</v>
+        <v>9821</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07102918233016567</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01764916146479022</v>
+        <v>0.01777054753022412</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1600555429171737</v>
+        <v>0.1801571512137483</v>
       </c>
     </row>
     <row r="36">
@@ -3016,19 +3016,19 @@
         <v>4429</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10185</v>
+        <v>10251</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09039981701789858</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02058581531016722</v>
+        <v>0.02191565721121422</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.207915181949205</v>
+        <v>0.2092573522352371</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -3037,19 +3037,19 @@
         <v>4429</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1489</v>
+        <v>1081</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>10281</v>
+        <v>10478</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08123476809982744</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02731245301743749</v>
+        <v>0.01982144644884175</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1885884484267978</v>
+        <v>0.1922073511971161</v>
       </c>
     </row>
     <row r="37">
@@ -3079,19 +3079,19 @@
         <v>4385</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1058</v>
+        <v>1035</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>9418</v>
+        <v>10384</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08951669230253728</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02160485742660431</v>
+        <v>0.02113631109920483</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1922486098433741</v>
+        <v>0.2119696604888235</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -3100,19 +3100,19 @@
         <v>4385</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>10858</v>
+        <v>9671</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0804411776499552</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02162381223831978</v>
+        <v>0.02192113594362826</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1991671915179367</v>
+        <v>0.1773966157655353</v>
       </c>
     </row>
     <row r="38">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3975</v>
+        <v>3823</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.178928705497194</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7192703709363305</v>
+        <v>0.6916094949145362</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>5812</v>
+        <v>5838</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03862858043732236</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1186343713832431</v>
+        <v>0.1191705070086601</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3</v>
@@ -3171,19 +3171,19 @@
         <v>2881</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7064</v>
+        <v>7798</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05285269672210016</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01696795751431614</v>
+        <v>0.01701190090501609</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1295829263909366</v>
+        <v>0.1430384177003134</v>
       </c>
     </row>
     <row r="39">
@@ -3200,7 +3200,7 @@
         <v>4538</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1552</v>
+        <v>1704</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>5527</v>
@@ -3209,7 +3209,7 @@
         <v>0.8210712945028059</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2807296290636538</v>
+        <v>0.3083905050854637</v>
       </c>
       <c r="I39" s="6" t="n">
         <v>1</v>
@@ -3221,19 +3221,19 @@
         <v>33518</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>26239</v>
+        <v>25854</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>39476</v>
+        <v>39537</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6842014388717238</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5356230403019342</v>
+        <v>0.527757959762723</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8058298137417959</v>
+        <v>0.8070680189960172</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>37</v>
@@ -3242,19 +3242,19 @@
         <v>38056</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>31397</v>
+        <v>30341</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>44566</v>
+        <v>44406</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.6980777824711786</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5759407073322808</v>
+        <v>0.5565576457114799</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.8175060651636267</v>
+        <v>0.8145630533158151</v>
       </c>
     </row>
     <row r="40">
@@ -3275,19 +3275,19 @@
         <v>169499</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>149212</v>
+        <v>149899</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>192912</v>
+        <v>190802</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2717833918581058</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2392550142112467</v>
+        <v>0.2403566425432822</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3093265243793276</v>
+        <v>0.3059427945825126</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>20</v>
@@ -3296,19 +3296,19 @@
         <v>21051</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>14038</v>
+        <v>13029</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>31193</v>
+        <v>31416</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08395866295417657</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05598859083642578</v>
+        <v>0.05196309302890597</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1244049588907573</v>
+        <v>0.1252948806278933</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>196</v>
@@ -3317,19 +3317,19 @@
         <v>190550</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>165408</v>
+        <v>165636</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>214373</v>
+        <v>214509</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2179237602342222</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.189170553016056</v>
+        <v>0.1894305104954264</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2451686727437549</v>
+        <v>0.2453251863001267</v>
       </c>
     </row>
     <row r="41">
@@ -3346,19 +3346,19 @@
         <v>116885</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>99561</v>
+        <v>98214</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>137348</v>
+        <v>136007</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1874198095822869</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1596423781616803</v>
+        <v>0.1574818849537915</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2202307049927676</v>
+        <v>0.2180808047504315</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>36</v>
@@ -3367,19 +3367,19 @@
         <v>36399</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>26572</v>
+        <v>26780</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>49047</v>
+        <v>47427</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1451686946557249</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1059772385465141</v>
+        <v>0.106804958988496</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1956110983325092</v>
+        <v>0.189153360898776</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>155</v>
@@ -3388,19 +3388,19 @@
         <v>153284</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>130746</v>
+        <v>131570</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>178390</v>
+        <v>176202</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1753041020344966</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1495288219627158</v>
+        <v>0.1504708595315897</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2040175010776629</v>
+        <v>0.2015148671941155</v>
       </c>
     </row>
     <row r="42">
@@ -3417,19 +3417,19 @@
         <v>14314</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7944</v>
+        <v>8467</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>23455</v>
+        <v>23292</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02295164218256642</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01273743901172479</v>
+        <v>0.01357703591117294</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0376084325097465</v>
+        <v>0.0373470641617737</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>26</v>
@@ -3438,19 +3438,19 @@
         <v>27487</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>18562</v>
+        <v>18208</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>38605</v>
+        <v>38586</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1096237948179564</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07402885006230274</v>
+        <v>0.07261871591919442</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1539691763885337</v>
+        <v>0.1538926322410524</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>40</v>
@@ -3459,19 +3459,19 @@
         <v>41800</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>31037</v>
+        <v>30031</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>56814</v>
+        <v>54836</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04780529292510962</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03549551457394497</v>
+        <v>0.03434526754275754</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.06497610613654263</v>
+        <v>0.06271315936854542</v>
       </c>
     </row>
     <row r="43">
@@ -3488,19 +3488,19 @@
         <v>46662</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>35884</v>
+        <v>35924</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>61464</v>
+        <v>61421</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07482051635098033</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05753884142435089</v>
+        <v>0.05760187738543448</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09855427964940947</v>
+        <v>0.09848583906708082</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>19</v>
@@ -3509,19 +3509,19 @@
         <v>20568</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>13166</v>
+        <v>12521</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>31526</v>
+        <v>30951</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08202930017612507</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05250905725773924</v>
+        <v>0.04993539217509981</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1257362427040537</v>
+        <v>0.1234401494342848</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>66</v>
@@ -3530,19 +3530,19 @@
         <v>67230</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>51186</v>
+        <v>53049</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>83545</v>
+        <v>84255</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07688766929481394</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05853902283206163</v>
+        <v>0.06066935390689331</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.09554628010050832</v>
+        <v>0.09635887982680834</v>
       </c>
     </row>
     <row r="44">
@@ -3559,19 +3559,19 @@
         <v>19983</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>12862</v>
+        <v>13157</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>30047</v>
+        <v>30512</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0320413435050932</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02062422664512385</v>
+        <v>0.02109638879749396</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04817824814552459</v>
+        <v>0.04892440891499211</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>13</v>
@@ -3580,19 +3580,19 @@
         <v>12643</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>7327</v>
+        <v>7204</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>20916</v>
+        <v>20263</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0504253938110286</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02922181753072649</v>
+        <v>0.02872979878741044</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0834174359535607</v>
+        <v>0.08081627217934403</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>34</v>
@@ -3601,19 +3601,19 @@
         <v>32626</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>23880</v>
+        <v>22900</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>45127</v>
+        <v>44335</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0373130571021834</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02731007526940608</v>
+        <v>0.0261902406622735</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.05160985572259242</v>
+        <v>0.05070368404385044</v>
       </c>
     </row>
     <row r="45">
@@ -3630,19 +3630,19 @@
         <v>358950</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>334966</v>
+        <v>333079</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>383630</v>
+        <v>381279</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.5755597551872214</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5371030563702304</v>
+        <v>0.5340777816330705</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.615134110746247</v>
+        <v>0.6113641162795972</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>161</v>
@@ -3651,19 +3651,19 @@
         <v>165844</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>149862</v>
+        <v>150293</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>180183</v>
+        <v>180510</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.6614316010896456</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.5976925364590826</v>
+        <v>0.5994101406951278</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.7186186299118598</v>
+        <v>0.7199217076099812</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>509</v>
@@ -3672,19 +3672,19 @@
         <v>524794</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>496795</v>
+        <v>497128</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>554281</v>
+        <v>554793</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.600183914179263</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.5681629148512962</v>
+        <v>0.568544184890906</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.633907047595098</v>
+        <v>0.6344934935486628</v>
       </c>
     </row>
     <row r="46">
@@ -3947,19 +3947,19 @@
         <v>19439</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11928</v>
+        <v>12432</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28605</v>
+        <v>28962</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1734542519927669</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1064310509704698</v>
+        <v>0.1109292339042031</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2552360572455934</v>
+        <v>0.2584257576328748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4399</v>
+        <v>4702</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01937579772414588</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08508857332978836</v>
+        <v>0.0909467847941595</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -3989,19 +3989,19 @@
         <v>20441</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13165</v>
+        <v>12270</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30762</v>
+        <v>30205</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1248161255700031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08038932928928166</v>
+        <v>0.0749257031394968</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1878418753365513</v>
+        <v>0.1844357498857761</v>
       </c>
     </row>
     <row r="5">
@@ -4018,19 +4018,19 @@
         <v>11740</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5492</v>
+        <v>6189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21471</v>
+        <v>22988</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1047525644080319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04900564321641231</v>
+        <v>0.05522057496752837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1915828080901686</v>
+        <v>0.2051228578709144</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -4039,19 +4039,19 @@
         <v>8123</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3593</v>
+        <v>3197</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14465</v>
+        <v>14613</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1571259083140312</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06950819315903616</v>
+        <v>0.06183584570495164</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2797986660502659</v>
+        <v>0.2826726050165276</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -4060,19 +4060,19 @@
         <v>19863</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12292</v>
+        <v>12054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30993</v>
+        <v>30086</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1212853193228874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0750580099372942</v>
+        <v>0.07360567975270614</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1892474514659359</v>
+        <v>0.183709258503063</v>
       </c>
     </row>
     <row r="6">
@@ -4089,19 +4089,19 @@
         <v>5999</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1982</v>
+        <v>1962</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15190</v>
+        <v>15364</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05353164884664414</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01768105389722916</v>
+        <v>0.01750574932303724</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1355348473301343</v>
+        <v>0.1370941771173849</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7239</v>
+        <v>6593</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03939464723703798</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1400239088247519</v>
+        <v>0.1275340555448316</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -4131,19 +4131,19 @@
         <v>8036</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3786</v>
+        <v>3668</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18100</v>
+        <v>15995</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04906900496310622</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02311853937711252</v>
+        <v>0.02240028932126508</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1105220033166537</v>
+        <v>0.09766647223197918</v>
       </c>
     </row>
     <row r="7">
@@ -4160,19 +4160,19 @@
         <v>13613</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7190</v>
+        <v>7085</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24582</v>
+        <v>23302</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1214674214645984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06415283110675947</v>
+        <v>0.06322022676711668</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2193399109139183</v>
+        <v>0.2079242640362105</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4181,19 +4181,19 @@
         <v>5116</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1978</v>
+        <v>1940</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10783</v>
+        <v>10419</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09896919766501033</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03826445672920676</v>
+        <v>0.03752306777070067</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2085816938618423</v>
+        <v>0.2015303811278476</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -4202,19 +4202,19 @@
         <v>18729</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11000</v>
+        <v>10967</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30007</v>
+        <v>29190</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1143653807630202</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06716713161009696</v>
+        <v>0.06696645671617622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.183228489599307</v>
+        <v>0.1782425985513327</v>
       </c>
     </row>
     <row r="8">
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6940</v>
+        <v>6465</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01773984970176892</v>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06192746815133778</v>
+        <v>0.05768593908592858</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -4252,19 +4252,19 @@
         <v>3973</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>968</v>
+        <v>1001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9277</v>
+        <v>9239</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.076859506288594</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01872208135059287</v>
+        <v>0.01936843493656825</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1794437235954119</v>
+        <v>0.1787189187162804</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -4273,19 +4273,19 @@
         <v>5962</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2835</v>
+        <v>2024</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12556</v>
+        <v>12757</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03640222105530853</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01731231912124</v>
+        <v>0.01235941201612346</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07666792128242444</v>
+        <v>0.07789798105707975</v>
       </c>
     </row>
     <row r="9">
@@ -4302,19 +4302,19 @@
         <v>76066</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>65183</v>
+        <v>65378</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>86034</v>
+        <v>86089</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6787268367174016</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5816207019226658</v>
+        <v>0.5833583788530246</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7676714645456778</v>
+        <v>0.7681627948280216</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -4323,19 +4323,19 @@
         <v>40632</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>33769</v>
+        <v>33501</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>45745</v>
+        <v>45841</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7859665780294698</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6532119681684178</v>
+        <v>0.6480240501660957</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8848636304633364</v>
+        <v>0.8867233898500317</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>105</v>
@@ -4344,19 +4344,19 @@
         <v>116698</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>102980</v>
+        <v>103887</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>129136</v>
+        <v>128847</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7125793316703128</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6288136675976982</v>
+        <v>0.6343543535822191</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7885300149655675</v>
+        <v>0.786765435196657</v>
       </c>
     </row>
     <row r="10">
@@ -4377,19 +4377,19 @@
         <v>8304</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4230</v>
+        <v>3957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16386</v>
+        <v>15712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09234624627036991</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04703865352946437</v>
+        <v>0.04400705348425903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1822295733130136</v>
+        <v>0.1747317585965943</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9569</v>
+        <v>10019</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05459158210149408</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1770136035600179</v>
+        <v>0.1853434138279377</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -4419,19 +4419,19 @@
         <v>11255</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5748</v>
+        <v>5952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20463</v>
+        <v>20348</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0781709431338776</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03992508055522307</v>
+        <v>0.04133812002723369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1421264266532032</v>
+        <v>0.1413259865881334</v>
       </c>
     </row>
     <row r="11">
@@ -4448,19 +4448,19 @@
         <v>6730</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2239</v>
+        <v>2264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14260</v>
+        <v>15111</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07484156437757762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02489573830005716</v>
+        <v>0.02517800499517314</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1585863835541617</v>
+        <v>0.1680414313749186</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -4469,19 +4469,19 @@
         <v>5163</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1928</v>
+        <v>2004</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10855</v>
+        <v>11369</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09551074840729003</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03567046669648665</v>
+        <v>0.03707596440115396</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2008078723257567</v>
+        <v>0.2103099427971171</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -4490,19 +4490,19 @@
         <v>11893</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6051</v>
+        <v>6258</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21043</v>
+        <v>21199</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0826019816837566</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04202904012380708</v>
+        <v>0.04346583264654091</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1461510942909603</v>
+        <v>0.1472388779385627</v>
       </c>
     </row>
     <row r="12">
@@ -4519,19 +4519,19 @@
         <v>3072</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7818</v>
+        <v>9101</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03415773544359043</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01059619812483849</v>
+        <v>0.01080503486988238</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08694009901834693</v>
+        <v>0.1012080664287294</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -4540,19 +4540,19 @@
         <v>4061</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9002</v>
+        <v>9290</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07512101372974586</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01849980446371656</v>
+        <v>0.01924384604361235</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1665176498872435</v>
+        <v>0.1718417434635979</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -4561,19 +4561,19 @@
         <v>7132</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3076</v>
+        <v>3020</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13649</v>
+        <v>13765</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04953773947629579</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02136423262337856</v>
+        <v>0.02097640092010267</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09479448863667471</v>
+        <v>0.095605514461843</v>
       </c>
     </row>
     <row r="13">
@@ -4590,19 +4590,19 @@
         <v>8005</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3247</v>
+        <v>3823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15529</v>
+        <v>15416</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0890168847486917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03610664624306242</v>
+        <v>0.04251049249895866</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.172699079068544</v>
+        <v>0.1714389273507715</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4611,19 +4611,19 @@
         <v>5779</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1942</v>
+        <v>2002</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12592</v>
+        <v>13017</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1069050637073035</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03593279932472541</v>
+        <v>0.03703146449646404</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.232936648823638</v>
+        <v>0.2407859470415586</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4632,19 +4632,19 @@
         <v>13784</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7163</v>
+        <v>7706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23232</v>
+        <v>22231</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.095733150536779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04975141718558716</v>
+        <v>0.05352193380732471</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1613584916553938</v>
+        <v>0.154400494310247</v>
       </c>
     </row>
     <row r="14">
@@ -4661,19 +4661,19 @@
         <v>6039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2872</v>
+        <v>2804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12385</v>
+        <v>12594</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06715624311744507</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03194380060936226</v>
+        <v>0.03118366451653581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1377302150707899</v>
+        <v>0.1400561045095973</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4900</v>
+        <v>4445</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01783609600615666</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09065011318191195</v>
+        <v>0.08221638886292384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -4703,19 +4703,19 @@
         <v>7003</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2989</v>
+        <v>2960</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14193</v>
+        <v>13799</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04863858307651016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02076178881138827</v>
+        <v>0.02056164891476471</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09857369654077078</v>
+        <v>0.09583785959507038</v>
       </c>
     </row>
     <row r="15">
@@ -4732,19 +4732,19 @@
         <v>66897</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>55726</v>
+        <v>57089</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>74468</v>
+        <v>74386</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7439430365491216</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6197122611009314</v>
+        <v>0.6348670824117736</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8281437497077361</v>
+        <v>0.8272290736041997</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>38</v>
@@ -4753,19 +4753,19 @@
         <v>40221</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32337</v>
+        <v>32662</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46514</v>
+        <v>46207</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7440198569219335</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5981812254878189</v>
+        <v>0.6041892275627302</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8604332439685775</v>
+        <v>0.8547502633759584</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>98</v>
@@ -4774,19 +4774,19 @@
         <v>107117</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>96038</v>
+        <v>95102</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>118117</v>
+        <v>117023</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7439718793979626</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6670215478379804</v>
+        <v>0.6605232345700854</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8203718014599582</v>
+        <v>0.8127745847788581</v>
       </c>
     </row>
     <row r="16">
@@ -4807,19 +4807,19 @@
         <v>29452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20216</v>
+        <v>19380</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41698</v>
+        <v>39991</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.181814533885103</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1247987798177854</v>
+        <v>0.1196366035211422</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2574098990316913</v>
+        <v>0.2468725838065378</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4828,19 +4828,19 @@
         <v>2984</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7438</v>
+        <v>8203</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08485646627310697</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02560076834355434</v>
+        <v>0.02604321204839616</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2114970072200345</v>
+        <v>0.2332326386961583</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -4849,19 +4849,19 @@
         <v>32436</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22744</v>
+        <v>21642</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46183</v>
+        <v>45395</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1645188496844079</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1153599347200119</v>
+        <v>0.1097708873552827</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2342405517770014</v>
+        <v>0.2302446710522672</v>
       </c>
     </row>
     <row r="17">
@@ -4878,19 +4878,19 @@
         <v>20326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13026</v>
+        <v>13299</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28931</v>
+        <v>30224</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1254805079620051</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08041178354238203</v>
+        <v>0.08209920337075842</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1785982316182299</v>
+        <v>0.1865827819659483</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -4912,19 +4912,19 @@
         <v>20326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12968</v>
+        <v>13108</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29343</v>
+        <v>30804</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1030969013936629</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.065775991417429</v>
+        <v>0.06648577068515731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1488283544835462</v>
+        <v>0.1562390409072788</v>
       </c>
     </row>
     <row r="18">
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4864</v>
+        <v>4472</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005967044218456558</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03002550309725053</v>
+        <v>0.02760954341445856</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6501</v>
+        <v>6681</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05939844521214557</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1848325988203119</v>
+        <v>0.1899549026233622</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -4983,19 +4983,19 @@
         <v>3056</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>8325</v>
+        <v>8336</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01549830511038892</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004945009492494687</v>
+        <v>0.00487172981417215</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04222473830550395</v>
+        <v>0.04228191322970754</v>
       </c>
     </row>
     <row r="19">
@@ -5012,19 +5012,19 @@
         <v>7240</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3088</v>
+        <v>3018</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13418</v>
+        <v>13548</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04469235457414471</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01906563367327638</v>
+        <v>0.01863298475306172</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08283217348048903</v>
+        <v>0.08363808669808535</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -5033,19 +5033,19 @@
         <v>3200</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>916</v>
+        <v>973</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8635</v>
+        <v>8488</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09097689060002179</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0260362186897816</v>
+        <v>0.02766057639531495</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2455299826823476</v>
+        <v>0.241328885368014</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5054,19 +5054,19 @@
         <v>10439</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5187</v>
+        <v>5372</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17903</v>
+        <v>19354</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0529487352776337</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02630817961409714</v>
+        <v>0.02724617050448735</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09080474307142616</v>
+        <v>0.09816198264613037</v>
       </c>
     </row>
     <row r="20">
@@ -5083,19 +5083,19 @@
         <v>7047</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2924</v>
+        <v>2113</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14325</v>
+        <v>13976</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04350171774033393</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01805078081794358</v>
+        <v>0.01304672647894957</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0884329788685991</v>
+        <v>0.0862782374151459</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -5117,19 +5117,19 @@
         <v>7047</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2947</v>
+        <v>3023</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14548</v>
+        <v>14996</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03574174489067389</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01494856659245962</v>
+        <v>0.01533470855866281</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07378826608961044</v>
+        <v>0.07606105514641551</v>
       </c>
     </row>
     <row r="21">
@@ -5146,19 +5146,19 @@
         <v>113146</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>100823</v>
+        <v>100376</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>124853</v>
+        <v>124919</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6984793716105218</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6224059156673981</v>
+        <v>0.6196448732569205</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7707495949206272</v>
+        <v>0.7711603527725991</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -5167,19 +5167,19 @@
         <v>29989</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23645</v>
+        <v>24455</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33149</v>
+        <v>33177</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8526760186662731</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.672301644762086</v>
+        <v>0.6953237990595775</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9425291475021662</v>
+        <v>0.9433412688903557</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>135</v>
@@ -5188,19 +5188,19 @@
         <v>143135</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>129123</v>
+        <v>130478</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>154635</v>
+        <v>156767</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7259854531359373</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.654920291758652</v>
+        <v>0.6617927255344087</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7843173217841399</v>
+        <v>0.7951275843164677</v>
       </c>
     </row>
     <row r="22">
@@ -5221,19 +5221,19 @@
         <v>70090</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56227</v>
+        <v>56015</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87383</v>
+        <v>86277</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2197605583284346</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1762947784874195</v>
+        <v>0.1756291335938444</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2739835369554456</v>
+        <v>0.2705138759389484</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -5242,19 +5242,19 @@
         <v>10416</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5169</v>
+        <v>5231</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17694</v>
+        <v>18011</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09205175906904782</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04568533235955897</v>
+        <v>0.04623547550808651</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1563774526356863</v>
+        <v>0.1591794025099586</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -5263,19 +5263,19 @@
         <v>80505</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66495</v>
+        <v>63830</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>97754</v>
+        <v>96878</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1863179118213611</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1538939120551925</v>
+        <v>0.1477249433324716</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2262372677060778</v>
+        <v>0.2242097002153146</v>
       </c>
     </row>
     <row r="23">
@@ -5292,19 +5292,19 @@
         <v>34823</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24603</v>
+        <v>24882</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47615</v>
+        <v>46858</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1091833401324339</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0771405406650712</v>
+        <v>0.07801399289047289</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1492927011566711</v>
+        <v>0.1469182525779673</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -5313,19 +5313,19 @@
         <v>8993</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3931</v>
+        <v>4089</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18241</v>
+        <v>18275</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07947635967105304</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03474394472160251</v>
+        <v>0.03613858236095722</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1612096839621499</v>
+        <v>0.1615085448168329</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>40</v>
@@ -5334,19 +5334,19 @@
         <v>43815</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30875</v>
+        <v>32146</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>57927</v>
+        <v>60099</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1014040794070655</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07145557826919521</v>
+        <v>0.07439712023350911</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1340643844883804</v>
+        <v>0.1390914176678756</v>
       </c>
     </row>
     <row r="24">
@@ -5363,19 +5363,19 @@
         <v>5069</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1946</v>
+        <v>1962</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11555</v>
+        <v>11189</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01589351435741854</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006102941807762218</v>
+        <v>0.00615265119152934</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03622934835673997</v>
+        <v>0.03508358451574488</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -5384,19 +5384,19 @@
         <v>9965</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4749</v>
+        <v>4934</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18924</v>
+        <v>17413</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08806808049844542</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04197383897288395</v>
+        <v>0.04360663534320481</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1672461672034812</v>
+        <v>0.1538986321202375</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -5405,19 +5405,19 @@
         <v>15034</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8890</v>
+        <v>8735</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25067</v>
+        <v>24743</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03479360985791202</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02057409694842841</v>
+        <v>0.02021581564187527</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05801396720505519</v>
+        <v>0.05726376379263121</v>
       </c>
     </row>
     <row r="25">
@@ -5434,19 +5434,19 @@
         <v>22484</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13555</v>
+        <v>15003</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33069</v>
+        <v>33369</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.070497131301422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04250206711629778</v>
+        <v>0.04703954515262871</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1036852734279851</v>
+        <v>0.1046241838150481</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -5455,19 +5455,19 @@
         <v>8444</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3838</v>
+        <v>4112</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15071</v>
+        <v>15673</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07462644353624984</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03392343728116987</v>
+        <v>0.03633834641835132</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1331943041425698</v>
+        <v>0.138514892193152</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -5476,19 +5476,19 @@
         <v>30928</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21379</v>
+        <v>21341</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43161</v>
+        <v>42673</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0715784595277269</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04947749340336821</v>
+        <v>0.04939123507152681</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09989001066141631</v>
+        <v>0.09876132597157872</v>
       </c>
     </row>
     <row r="26">
@@ -5505,19 +5505,19 @@
         <v>9889</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5113</v>
+        <v>5039</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19331</v>
+        <v>16941</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03100460543603546</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01603275988427173</v>
+        <v>0.01579959536336491</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06061184511658694</v>
+        <v>0.05311592825567978</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -5526,19 +5526,19 @@
         <v>3947</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10914</v>
+        <v>11354</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03488035278026291</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00870275267412445</v>
+        <v>0.008623372015231737</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0964582770117884</v>
+        <v>0.1003441795485096</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -5547,19 +5547,19 @@
         <v>13835</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7117</v>
+        <v>7672</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23038</v>
+        <v>22941</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03201953353132252</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01647188879083193</v>
+        <v>0.01775518679321457</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05331843217012062</v>
+        <v>0.05309386536582323</v>
       </c>
     </row>
     <row r="27">
@@ -5576,19 +5576,19 @@
         <v>213365</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>196161</v>
+        <v>194176</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>229869</v>
+        <v>230262</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6689875496363703</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6150476205919332</v>
+        <v>0.6088221349418376</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7207340953760368</v>
+        <v>0.7219681873952215</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>77</v>
@@ -5597,19 +5597,19 @@
         <v>85630</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>75626</v>
+        <v>75114</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>94177</v>
+        <v>94823</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7567898822650702</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6683757427582799</v>
+        <v>0.6638485529369159</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8323280387974737</v>
+        <v>0.8380377799717422</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>275</v>
@@ -5618,19 +5618,19 @@
         <v>298995</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>276919</v>
+        <v>279072</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>315963</v>
+        <v>317756</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6919800324537378</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6408881035031203</v>
+        <v>0.645871403654496</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.731249563095532</v>
+        <v>0.7354000748089724</v>
       </c>
     </row>
     <row r="28">
@@ -5651,19 +5651,19 @@
         <v>32513</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23060</v>
+        <v>23026</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42426</v>
+        <v>43486</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2557307297161792</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.181375713528854</v>
+        <v>0.1811135517850348</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3337017256607768</v>
+        <v>0.3420390582042938</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -5672,19 +5672,19 @@
         <v>5216</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2031</v>
+        <v>1972</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11125</v>
+        <v>11106</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07510154872183421</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02924764581586679</v>
+        <v>0.02840100457561169</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1601972343962486</v>
+        <v>0.1599251399182658</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -5693,19 +5693,19 @@
         <v>37729</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>27376</v>
+        <v>27048</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>50294</v>
+        <v>49889</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1919196715004104</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1392559447016266</v>
+        <v>0.1375876218740969</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2558391042040692</v>
+        <v>0.253777231884514</v>
       </c>
     </row>
     <row r="29">
@@ -5722,19 +5722,19 @@
         <v>12656</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6916</v>
+        <v>7189</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20761</v>
+        <v>20844</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09954599529497909</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0543968730289786</v>
+        <v>0.05654559754943642</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1632920479103865</v>
+        <v>0.1639473856864387</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7547</v>
+        <v>7264</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03168595503003815</v>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1086737404182218</v>
+        <v>0.1045980191683355</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -5764,19 +5764,19 @@
         <v>14857</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8302</v>
+        <v>8295</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23947</v>
+        <v>23598</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07557300844959153</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04223259031720024</v>
+        <v>0.04219366372708917</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.121816181051501</v>
+        <v>0.1200371404779575</v>
       </c>
     </row>
     <row r="30">
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6235</v>
+        <v>6950</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0160288289788738</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04903869142203336</v>
+        <v>0.05466648227481465</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6398</v>
+        <v>7045</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01036630793177046</v>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03254582476081166</v>
+        <v>0.03583879963673615</v>
       </c>
     </row>
     <row r="31">
@@ -5856,19 +5856,19 @@
         <v>11908</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6306</v>
+        <v>6712</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20278</v>
+        <v>19767</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09366218463646472</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04959584393943925</v>
+        <v>0.05279376250133189</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1594988640598387</v>
+        <v>0.1554772452494759</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -5877,19 +5877,19 @@
         <v>3680</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10698</v>
+        <v>10450</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05299070348070279</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01351675867410965</v>
+        <v>0.01348606118725645</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1540387991168318</v>
+        <v>0.1504724667705482</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>14</v>
@@ -5898,19 +5898,19 @@
         <v>15588</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8352</v>
+        <v>8627</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24342</v>
+        <v>25449</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07929412828219758</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04248417961287706</v>
+        <v>0.0438815775297174</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1238219672741583</v>
+        <v>0.1294550556885903</v>
       </c>
     </row>
     <row r="32">
@@ -5927,19 +5927,19 @@
         <v>4559</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>999</v>
+        <v>1137</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10835</v>
+        <v>12112</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03585514097377623</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007859300433086717</v>
+        <v>0.008944831599072452</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08522032317352173</v>
+        <v>0.09526895270115407</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8386</v>
+        <v>8309</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03492060638979267</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1207585617953739</v>
+        <v>0.1196367529198419</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -5969,19 +5969,19 @@
         <v>6984</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2481</v>
+        <v>2913</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15827</v>
+        <v>14829</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03552499697148962</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01262089646177328</v>
+        <v>0.01481749099800163</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08051178969365534</v>
+        <v>0.07543408752916218</v>
       </c>
     </row>
     <row r="33">
@@ -5998,19 +5998,19 @@
         <v>75061</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>64398</v>
+        <v>62633</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>86839</v>
+        <v>85826</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5903883129093687</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5065220485552516</v>
+        <v>0.4926386458281364</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6830256067221837</v>
+        <v>0.6750611737603704</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>55</v>
@@ -6019,19 +6019,19 @@
         <v>57832</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>49749</v>
+        <v>50319</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>63373</v>
+        <v>63424</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8327392856666327</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.71634187356136</v>
+        <v>0.7245535956782638</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9125296596098262</v>
+        <v>0.9132585467764279</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>126</v>
@@ -6040,19 +6040,19 @@
         <v>132893</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>117533</v>
+        <v>118560</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>145029</v>
+        <v>146614</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6760038925523176</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5978728231280974</v>
+        <v>0.6030939986825693</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7377391533474912</v>
+        <v>0.7458025298285634</v>
       </c>
     </row>
     <row r="34">
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4045</v>
+        <v>4104</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1624858783201643</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6723222940372414</v>
+        <v>0.6822193722542491</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -6094,19 +6094,19 @@
         <v>11906</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6440</v>
+        <v>5975</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>19563</v>
+        <v>19332</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1953698641905684</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1056768362096053</v>
+        <v>0.09805132901203611</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3210318710515192</v>
+        <v>0.3172347759846573</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -6115,19 +6115,19 @@
         <v>12883</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7261</v>
+        <v>6960</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20475</v>
+        <v>20952</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.192415394398609</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1084451760321096</v>
+        <v>0.1039544525237158</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3058075164373517</v>
+        <v>0.3129379988758562</v>
       </c>
     </row>
     <row r="35">
@@ -6157,19 +6157,19 @@
         <v>9641</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4101</v>
+        <v>4657</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17270</v>
+        <v>16990</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1582013569537168</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06730286619382427</v>
+        <v>0.07642641727344719</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2833917907850478</v>
+        <v>0.2787983497023329</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -6178,19 +6178,19 @@
         <v>9641</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4820</v>
+        <v>4787</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18215</v>
+        <v>17326</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1439877171592962</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07198594119185268</v>
+        <v>0.07149289738269859</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2720457969715757</v>
+        <v>0.2587716836193678</v>
       </c>
     </row>
     <row r="36">
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5190</v>
+        <v>5556</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01627878305012995</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0851674429762609</v>
+        <v>0.09117409332741674</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5183</v>
+        <v>4109</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01481621178638434</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07740852700724184</v>
+        <v>0.06136946082843538</v>
       </c>
     </row>
     <row r="37">
@@ -6283,19 +6283,19 @@
         <v>5143</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1326</v>
+        <v>1115</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11979</v>
+        <v>11826</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08439134063409838</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02175692503422683</v>
+        <v>0.01829635600185081</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1965736899141227</v>
+        <v>0.1940601300542111</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -6304,19 +6304,19 @@
         <v>5143</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1307</v>
+        <v>1283</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>12072</v>
+        <v>11851</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07680917989515952</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01952292548101172</v>
+        <v>0.01915650593769817</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1803045485805833</v>
+        <v>0.1769979517491655</v>
       </c>
     </row>
     <row r="38">
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3989</v>
+        <v>3883</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1488247317724238</v>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6629928105521338</v>
+        <v>0.645505018719181</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>5424</v>
+        <v>5538</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01768421662688466</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.08901026964738779</v>
+        <v>0.09088106953771256</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6844</v>
+        <v>6583</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02946656843868851</v>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.102222477762777</v>
+        <v>0.09831847804496209</v>
       </c>
     </row>
     <row r="39">
@@ -6404,7 +6404,7 @@
         <v>5038</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1971</v>
+        <v>1912</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>6016</v>
@@ -6413,7 +6413,7 @@
         <v>0.8375141216798357</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3276777059627585</v>
+        <v>0.3177806277457513</v>
       </c>
       <c r="I39" s="6" t="n">
         <v>1</v>
@@ -6425,19 +6425,19 @@
         <v>43250</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>34579</v>
+        <v>35146</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>49863</v>
+        <v>49689</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.709731255229723</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5674366795714244</v>
+        <v>0.5767328199435489</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8182406544351889</v>
+        <v>0.8153957200302249</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>44</v>
@@ -6446,19 +6446,19 @@
         <v>48288</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>39535</v>
+        <v>39836</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>55050</v>
+        <v>54404</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.7212119382693244</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5904738308911376</v>
+        <v>0.5949763050181283</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.8221994130835081</v>
+        <v>0.8125625104150501</v>
       </c>
     </row>
     <row r="40">
@@ -6479,19 +6479,19 @@
         <v>160776</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>138797</v>
+        <v>137983</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>185667</v>
+        <v>187557</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1970111989947081</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1700787954289705</v>
+        <v>0.1690821537350692</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2275131113615638</v>
+        <v>0.2298281305972841</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>32</v>
@@ -6500,19 +6500,19 @@
         <v>34474</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>25315</v>
+        <v>23920</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>46807</v>
+        <v>47010</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08966842721817805</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0658460273669506</v>
+        <v>0.06221764087014932</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1217479827233361</v>
+        <v>0.1222760265302607</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>180</v>
@@ -6521,19 +6521,19 @@
         <v>195250</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>169734</v>
+        <v>168940</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>221448</v>
+        <v>224152</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1626355527042505</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1413817325355546</v>
+        <v>0.14072059495898</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1844580166891115</v>
+        <v>0.1867104644191261</v>
       </c>
     </row>
     <row r="41">
@@ -6550,19 +6550,19 @@
         <v>86275</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>68199</v>
+        <v>69811</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>106098</v>
+        <v>107252</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1057195120927983</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08356989102812284</v>
+        <v>0.08554512908171695</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1300102799200624</v>
+        <v>0.1314242065405452</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>30</v>
@@ -6571,19 +6571,19 @@
         <v>34120</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>24035</v>
+        <v>23992</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>47037</v>
+        <v>49801</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.08874733546532859</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06251712791619977</v>
+        <v>0.06240442903025999</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1223453714979323</v>
+        <v>0.129535751604574</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>109</v>
@@ -6592,19 +6592,19 @@
         <v>120395</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>99388</v>
+        <v>99283</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>143443</v>
+        <v>144007</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1002843110925887</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08278612928709124</v>
+        <v>0.08269866818057162</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1194830226028526</v>
+        <v>0.1199520423191189</v>
       </c>
     </row>
     <row r="42">
@@ -6621,19 +6621,19 @@
         <v>17144</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9893</v>
+        <v>10131</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>27873</v>
+        <v>28140</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02100840686648</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01212304406111608</v>
+        <v>0.01241489368249413</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03415557892261419</v>
+        <v>0.03448261401592706</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>18</v>
@@ -6642,19 +6642,19 @@
         <v>19143</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>11581</v>
+        <v>11617</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>30030</v>
+        <v>28784</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04979269545352449</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03012340057702882</v>
+        <v>0.03021559534222638</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07810965612158793</v>
+        <v>0.07486902487590992</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>34</v>
@@ -6663,19 +6663,19 @@
         <v>36288</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>26078</v>
+        <v>25116</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>50100</v>
+        <v>50088</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0302263402849558</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02172189415688878</v>
+        <v>0.02092061705633476</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04173166849400459</v>
+        <v>0.04172138704959279</v>
       </c>
     </row>
     <row r="43">
@@ -6692,19 +6692,19 @@
         <v>63249</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>47656</v>
+        <v>48805</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>80825</v>
+        <v>80900</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07750462479265627</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05839703481592941</v>
+        <v>0.05980414876009399</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09904152582770405</v>
+        <v>0.09913319250345164</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>28</v>
@@ -6713,19 +6713,19 @@
         <v>31362</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>21550</v>
+        <v>21661</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>44502</v>
+        <v>45303</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08157363485240236</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05605225892672154</v>
+        <v>0.05634039346365422</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1157518061827967</v>
+        <v>0.1178339105459648</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>86</v>
@@ -6734,19 +6734,19 @@
         <v>94611</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>77197</v>
+        <v>76542</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>117672</v>
+        <v>115912</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07880769204395979</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06430219115014373</v>
+        <v>0.06375627102134776</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.09801613638666609</v>
+        <v>0.09655043078068837</v>
       </c>
     </row>
     <row r="44">
@@ -6763,19 +6763,19 @@
         <v>30416</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>20557</v>
+        <v>20946</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>43449</v>
+        <v>42963</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03727126385474394</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02518956602588276</v>
+        <v>0.02566703018773649</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05324133762138177</v>
+        <v>0.05264629168448452</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>11</v>
@@ -6784,19 +6784,19 @@
         <v>12387</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>6375</v>
+        <v>6465</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>21397</v>
+        <v>22506</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03221936268273008</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01658079489156524</v>
+        <v>0.01681568400965989</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05565513031530733</v>
+        <v>0.05853790485288976</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>40</v>
@@ -6805,19 +6805,19 @@
         <v>42803</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>31466</v>
+        <v>32129</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>56740</v>
+        <v>57833</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03565343374928483</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02621001493139016</v>
+        <v>0.02676197214038627</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0472626914243832</v>
+        <v>0.04817295491248812</v>
       </c>
     </row>
     <row r="45">
@@ -6834,19 +6834,19 @@
         <v>549572</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>523286</v>
+        <v>519817</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>577740</v>
+        <v>578239</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.6734354511933404</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.6412244379207042</v>
+        <v>0.6369732152162566</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7079513288831764</v>
+        <v>0.7085626661974324</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>271</v>
@@ -6855,19 +6855,19 @@
         <v>297553</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>278956</v>
+        <v>280015</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>313073</v>
+        <v>314642</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.7739493843416579</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.7255763366341724</v>
+        <v>0.7283304727176586</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.8143161371639872</v>
+        <v>0.8183978992724641</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>783</v>
@@ -6876,19 +6876,19 @@
         <v>847126</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>813514</v>
+        <v>812255</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>880638</v>
+        <v>877096</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.7056242176653157</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.6776266915980754</v>
+        <v>0.6765783561591396</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.7335384877882025</v>
+        <v>0.7305882221996872</v>
       </c>
     </row>
     <row r="46">
@@ -7151,19 +7151,19 @@
         <v>17257</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9807</v>
+        <v>9574</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26712</v>
+        <v>26489</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1848549776362136</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1050558045331334</v>
+        <v>0.1025565167015933</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.286147152109282</v>
+        <v>0.2837528213410416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -7172,19 +7172,19 @@
         <v>6946</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13142</v>
+        <v>12419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1131318196682013</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04816040977233519</v>
+        <v>0.04819121567085374</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2140554909071942</v>
+        <v>0.2022842768088281</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -7193,19 +7193,19 @@
         <v>24203</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16170</v>
+        <v>15093</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35398</v>
+        <v>35658</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1563988768727063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1044905254549327</v>
+        <v>0.09753428107860673</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2287477039358905</v>
+        <v>0.2304254269198079</v>
       </c>
     </row>
     <row r="5">
@@ -7222,19 +7222,19 @@
         <v>7414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3099</v>
+        <v>3316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14199</v>
+        <v>14221</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07941748809541256</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03319367111645396</v>
+        <v>0.03552091075015939</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1521012659356576</v>
+        <v>0.1523403846580964</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -7243,19 +7243,19 @@
         <v>9323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4498</v>
+        <v>4893</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16559</v>
+        <v>16643</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1518425509459733</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07326677295487126</v>
+        <v>0.07970073336048092</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2697092797140651</v>
+        <v>0.2710761583415276</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -7264,19 +7264,19 @@
         <v>16736</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9840</v>
+        <v>9904</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25871</v>
+        <v>25608</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1081520690127511</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06358563651516377</v>
+        <v>0.06400276052448181</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.167180237005219</v>
+        <v>0.1654822971633344</v>
       </c>
     </row>
     <row r="6">
@@ -7293,19 +7293,19 @@
         <v>8769</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4179</v>
+        <v>4158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15976</v>
+        <v>16522</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09393255330234646</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0447617462930048</v>
+        <v>0.04453658121105696</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1711347686023608</v>
+        <v>0.176981031885147</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -7314,19 +7314,19 @@
         <v>9517</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4504</v>
+        <v>4777</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17450</v>
+        <v>19011</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1550058049374406</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07335354657894012</v>
+        <v>0.07780275247544004</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2842216574605779</v>
+        <v>0.3096391335306685</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -7335,19 +7335,19 @@
         <v>18286</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10460</v>
+        <v>11020</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27701</v>
+        <v>27926</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1181633129582216</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0675927661822123</v>
+        <v>0.07121060750480691</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1790033314669426</v>
+        <v>0.1804599868050221</v>
       </c>
     </row>
     <row r="7">
@@ -7364,19 +7364,19 @@
         <v>11047</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4990</v>
+        <v>4890</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18749</v>
+        <v>18994</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1183355162958401</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05345213514621724</v>
+        <v>0.05238175052272644</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.200846442191359</v>
+        <v>0.2034621871386709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -7385,19 +7385,19 @@
         <v>4685</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1753</v>
+        <v>1828</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9928</v>
+        <v>10146</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07630059259013897</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02855227066948385</v>
+        <v>0.0297798451595116</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1617042051106228</v>
+        <v>0.1652557274089609</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -7406,19 +7406,19 @@
         <v>15732</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8702</v>
+        <v>8666</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24570</v>
+        <v>25524</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.101658196746006</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05623329398756095</v>
+        <v>0.05600283025519073</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1587754211746648</v>
+        <v>0.1649390704126799</v>
       </c>
     </row>
     <row r="8">
@@ -7435,19 +7435,19 @@
         <v>7007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2751</v>
+        <v>2938</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14916</v>
+        <v>14821</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07505744654377822</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02946859806013632</v>
+        <v>0.03146909212933694</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1597785096239492</v>
+        <v>0.1587614531156143</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -7456,19 +7456,19 @@
         <v>4025</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1047</v>
+        <v>1062</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9691</v>
+        <v>9656</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06555807435652358</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01705562101831918</v>
+        <v>0.01729440876117278</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.157845987363181</v>
+        <v>0.1572753238354619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -7477,19 +7477,19 @@
         <v>11032</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5656</v>
+        <v>5628</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20261</v>
+        <v>20216</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07128857886130481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03654986865132312</v>
+        <v>0.03636932557972126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.130926933932503</v>
+        <v>0.1306361173745163</v>
       </c>
     </row>
     <row r="9">
@@ -7506,19 +7506,19 @@
         <v>60289</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49782</v>
+        <v>50022</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>70368</v>
+        <v>70545</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6458268898380443</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5332672995382279</v>
+        <v>0.5358382692245026</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7537879917432826</v>
+        <v>0.7556866335901928</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>39</v>
@@ -7527,19 +7527,19 @@
         <v>41543</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>33959</v>
+        <v>33779</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47692</v>
+        <v>48290</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6766442632181099</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.553119066872746</v>
+        <v>0.5501801621543929</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7767859835407532</v>
+        <v>0.7865393959747657</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>94</v>
@@ -7548,19 +7548,19 @@
         <v>101833</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>88243</v>
+        <v>88906</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>112679</v>
+        <v>113278</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6580536560180956</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.570236312850076</v>
+        <v>0.5745189501247944</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.728138827214828</v>
+        <v>0.7320079829186591</v>
       </c>
     </row>
     <row r="10">
@@ -7581,19 +7581,19 @@
         <v>11330</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6126</v>
+        <v>6226</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18643</v>
+        <v>18944</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1555177036530977</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08407950036028426</v>
+        <v>0.08545773318679421</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2558963873455098</v>
+        <v>0.2600296632311885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -7602,19 +7602,19 @@
         <v>9647</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5098</v>
+        <v>5209</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16356</v>
+        <v>16885</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1441305320581072</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07616428034417794</v>
+        <v>0.07783091111268824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2443725136115004</v>
+        <v>0.2522661220507226</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -7623,19 +7623,19 @@
         <v>20977</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13149</v>
+        <v>13575</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29708</v>
+        <v>30987</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1500653447519819</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09406265713495029</v>
+        <v>0.09711265233617054</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2125213718071351</v>
+        <v>0.221669628630486</v>
       </c>
     </row>
     <row r="11">
@@ -7652,19 +7652,19 @@
         <v>5593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2037</v>
+        <v>2522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11007</v>
+        <v>10918</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07676359484929844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02796293670780764</v>
+        <v>0.03461085341292541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.151080408717449</v>
+        <v>0.1498526912199517</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -7673,19 +7673,19 @@
         <v>8233</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3676</v>
+        <v>3527</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15543</v>
+        <v>14875</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.123008386795259</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05491920539672487</v>
+        <v>0.05269324478077209</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2322215413185168</v>
+        <v>0.2222393135507579</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -7694,19 +7694,19 @@
         <v>13826</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8002</v>
+        <v>8030</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22707</v>
+        <v>22562</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09890633687206112</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05724178938913025</v>
+        <v>0.05744740842270172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1624426354970004</v>
+        <v>0.1614005325108871</v>
       </c>
     </row>
     <row r="12">
@@ -7723,19 +7723,19 @@
         <v>10081</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5177</v>
+        <v>5087</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16972</v>
+        <v>16567</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1383676582538869</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07105812372876748</v>
+        <v>0.06982420544327811</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2329495290514088</v>
+        <v>0.2273925808510199</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -7744,19 +7744,19 @@
         <v>8114</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3800</v>
+        <v>3784</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15221</v>
+        <v>14310</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1212318668924218</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05677197701759561</v>
+        <v>0.05653206617260476</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2274115840107282</v>
+        <v>0.2137951289021824</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -7765,19 +7765,19 @@
         <v>18195</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10970</v>
+        <v>11071</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28057</v>
+        <v>27588</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.130162768762413</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07847298395222552</v>
+        <v>0.07919619132053608</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2007090102526437</v>
+        <v>0.1973573853124684</v>
       </c>
     </row>
     <row r="13">
@@ -7794,19 +7794,19 @@
         <v>11093</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5562</v>
+        <v>5122</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19282</v>
+        <v>19316</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1522604817879627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07634507024508523</v>
+        <v>0.07030910040561819</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2646664542932538</v>
+        <v>0.2651314363825373</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -7815,19 +7815,19 @@
         <v>4014</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1002</v>
+        <v>1112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9373</v>
+        <v>9226</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05997460399535743</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01497168546214469</v>
+        <v>0.01661579744136897</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1400392980299277</v>
+        <v>0.1378416306791061</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -7836,19 +7836,19 @@
         <v>15107</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8259</v>
+        <v>8548</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24142</v>
+        <v>25017</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1080725354632447</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05908629677149277</v>
+        <v>0.06114828636131447</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1727088919727084</v>
+        <v>0.1789681212010578</v>
       </c>
     </row>
     <row r="14">
@@ -7865,19 +7865,19 @@
         <v>3135</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7526</v>
+        <v>8080</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0430344392959327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0</v>
+        <v>0.01330126627769361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1033069767428934</v>
+        <v>0.1108984091508452</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5334</v>
+        <v>5461</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01606390612694468</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07968798315903586</v>
+        <v>0.08159466938196047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -7907,19 +7907,19 @@
         <v>4210</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9640</v>
+        <v>9817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03012051898085968</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007649110218979252</v>
+        <v>0.007568817895587711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06896553794391555</v>
+        <v>0.07022733622470953</v>
       </c>
     </row>
     <row r="15">
@@ -7936,19 +7936,19 @@
         <v>46935</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>38100</v>
+        <v>38872</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>54728</v>
+        <v>55042</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6442258970807136</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5229619280311492</v>
+        <v>0.533554107479566</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7511952159465827</v>
+        <v>0.7554975306353651</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>41</v>
@@ -7957,19 +7957,19 @@
         <v>43854</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>35805</v>
+        <v>34754</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51356</v>
+        <v>51568</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6551997432730735</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5349502534764922</v>
+        <v>0.5192485047778312</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7672823385986977</v>
+        <v>0.7704587113781882</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>86</v>
@@ -7978,19 +7978,19 @@
         <v>90789</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>79083</v>
+        <v>79029</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>101315</v>
+        <v>102314</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6494803492040759</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5657376039208818</v>
+        <v>0.5653561580811705</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7247777707270008</v>
+        <v>0.7319244580540639</v>
       </c>
     </row>
     <row r="16">
@@ -8011,19 +8011,19 @@
         <v>19082</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12539</v>
+        <v>12106</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28881</v>
+        <v>28205</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1941557497048622</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1275850606578926</v>
+        <v>0.1231716394382718</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2938597801741045</v>
+        <v>0.2869737001207377</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -8045,19 +8045,19 @@
         <v>19082</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12142</v>
+        <v>12274</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27855</v>
+        <v>28097</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1711836314928003</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1089203845771599</v>
+        <v>0.1101117706764502</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2498849997555622</v>
+        <v>0.2520555095611436</v>
       </c>
     </row>
     <row r="17">
@@ -8074,19 +8074,19 @@
         <v>15379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8638</v>
+        <v>8629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23955</v>
+        <v>23613</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1564748815100785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08788794552939637</v>
+        <v>0.08780136343705408</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.243731143809265</v>
+        <v>0.2402585142919702</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4991</v>
+        <v>4393</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07093392003817849</v>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.378422340681614</v>
+        <v>0.3330540747238117</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -8116,19 +8116,19 @@
         <v>16315</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9498</v>
+        <v>9554</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24715</v>
+        <v>25818</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1463538468155458</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0852010129395849</v>
+        <v>0.08571093323856743</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2217090554214465</v>
+        <v>0.2316038910839838</v>
       </c>
     </row>
     <row r="18">
@@ -8145,19 +8145,19 @@
         <v>13861</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7771</v>
+        <v>8060</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21872</v>
+        <v>22476</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.141030836231145</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0790709610129071</v>
+        <v>0.08200555899172569</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2225413709685318</v>
+        <v>0.2286857084283909</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5367</v>
+        <v>4287</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07895187344041471</v>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.406907355670504</v>
+        <v>0.3250783169804081</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -8187,19 +8187,19 @@
         <v>14902</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8183</v>
+        <v>8895</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23317</v>
+        <v>23584</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1336857780812903</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07340535423157421</v>
+        <v>0.07979080618154022</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2091692546513914</v>
+        <v>0.2115697576421068</v>
       </c>
     </row>
     <row r="19">
@@ -8216,19 +8216,19 @@
         <v>9198</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4623</v>
+        <v>4867</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16128</v>
+        <v>15810</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09358691998345839</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04703279239029687</v>
+        <v>0.04951620965183062</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1641008861567597</v>
+        <v>0.1608607584280278</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3857</v>
+        <v>4521</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06705568376542947</v>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2924713853821641</v>
+        <v>0.3427596388814302</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -8258,19 +8258,19 @@
         <v>10082</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5240</v>
+        <v>5325</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17610</v>
+        <v>17243</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09044779742005674</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04700460821228612</v>
+        <v>0.04777038254590805</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1579746997145373</v>
+        <v>0.1546845636413444</v>
       </c>
     </row>
     <row r="20">
@@ -8287,19 +8287,19 @@
         <v>5021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1838</v>
+        <v>1854</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10866</v>
+        <v>11627</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05108848758058536</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0187008862635667</v>
+        <v>0.0188642584169805</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.11055954703524</v>
+        <v>0.1183000791424824</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -8321,19 +8321,19 @@
         <v>5021</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1809</v>
+        <v>1894</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10653</v>
+        <v>11672</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0450438003757991</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01622800101733764</v>
+        <v>0.01698711411881901</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09556457656075439</v>
+        <v>0.1047037639609191</v>
       </c>
     </row>
     <row r="21">
@@ -8350,19 +8350,19 @@
         <v>60787</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49873</v>
+        <v>51095</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>69732</v>
+        <v>70068</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6184867456108091</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5074405969832813</v>
+        <v>0.5198795388608487</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7095037917723761</v>
+        <v>0.7129244986339328</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -8371,19 +8371,19 @@
         <v>10328</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6728</v>
+        <v>6516</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12318</v>
+        <v>13189</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7830585227559773</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5101073649037262</v>
+        <v>0.4940791381717219</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.933949147923811</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>71</v>
@@ -8392,19 +8392,19 @@
         <v>71115</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>60750</v>
+        <v>61307</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>81355</v>
+        <v>80784</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6379585476290073</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5449709679921336</v>
+        <v>0.5499728956867719</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7298149418656127</v>
+        <v>0.7246928137560835</v>
       </c>
     </row>
     <row r="22">
@@ -8425,19 +8425,19 @@
         <v>48206</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36423</v>
+        <v>37770</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62546</v>
+        <v>61116</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2116694589225316</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1599295853171152</v>
+        <v>0.1658448442665681</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2746358241776098</v>
+        <v>0.2683543362634692</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -8446,19 +8446,19 @@
         <v>8311</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4010</v>
+        <v>4089</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15487</v>
+        <v>15284</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09588891580905783</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04626985954398207</v>
+        <v>0.04717974048727438</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1786858291484782</v>
+        <v>0.1763333303007062</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -8467,19 +8467,19 @@
         <v>56517</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44914</v>
+        <v>43637</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72114</v>
+        <v>72300</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1797525238367825</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1428500804441995</v>
+        <v>0.1387879503250925</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2293572107132434</v>
+        <v>0.2299514028355166</v>
       </c>
     </row>
     <row r="23">
@@ -8496,19 +8496,19 @@
         <v>43044</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31785</v>
+        <v>31613</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>56364</v>
+        <v>57265</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1890044292544945</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1395661593823371</v>
+        <v>0.1388093479949147</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2474889052511896</v>
+        <v>0.251446781828731</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -8517,19 +8517,19 @@
         <v>3850</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>976</v>
+        <v>1095</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9596</v>
+        <v>8955</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04441856065549662</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01125487782072229</v>
+        <v>0.01263853733916557</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.110718690191772</v>
+        <v>0.1033213352304335</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -8538,19 +8538,19 @@
         <v>46894</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33567</v>
+        <v>34981</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>60314</v>
+        <v>60098</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1491468015538879</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.106758881167654</v>
+        <v>0.1112569406757626</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1918271736681948</v>
+        <v>0.1911425425088351</v>
       </c>
     </row>
     <row r="24">
@@ -8567,19 +8567,19 @@
         <v>13434</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7544</v>
+        <v>7689</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21901</v>
+        <v>21928</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05898647233392697</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03312496617000886</v>
+        <v>0.03376072209702</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09616568917790992</v>
+        <v>0.09628329650350066</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -8588,19 +8588,19 @@
         <v>10156</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4921</v>
+        <v>5128</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17483</v>
+        <v>18048</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.117178896783469</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05677206988443524</v>
+        <v>0.05915855599095964</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.201714541643965</v>
+        <v>0.2082250392398373</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>24</v>
@@ -8609,19 +8609,19 @@
         <v>23590</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15226</v>
+        <v>15048</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34247</v>
+        <v>34298</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07502823361516466</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04842652957427449</v>
+        <v>0.04786072927974229</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1089227904696545</v>
+        <v>0.1090836805012262</v>
       </c>
     </row>
     <row r="25">
@@ -8638,19 +8638,19 @@
         <v>26293</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17240</v>
+        <v>17601</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36496</v>
+        <v>37636</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1154499617680065</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0756992124867536</v>
+        <v>0.07728524709667596</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1602506293852335</v>
+        <v>0.1652550671145523</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -8659,19 +8659,19 @@
         <v>4792</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1817</v>
+        <v>1896</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9916</v>
+        <v>10003</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05529074116589288</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02096716459006843</v>
+        <v>0.02187485227706754</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1144077240760736</v>
+        <v>0.115404962249859</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -8680,19 +8680,19 @@
         <v>31085</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22049</v>
+        <v>22095</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43238</v>
+        <v>42886</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09886601867071872</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07012752705707091</v>
+        <v>0.07027437362092442</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1375196373778355</v>
+        <v>0.1363989420745866</v>
       </c>
     </row>
     <row r="26">
@@ -8709,19 +8709,19 @@
         <v>10122</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5371</v>
+        <v>5450</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18356</v>
+        <v>18669</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04444358745872664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02358573370848698</v>
+        <v>0.02392962582090495</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08059796736937173</v>
+        <v>0.08197315197974986</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -8730,19 +8730,19 @@
         <v>5177</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2005</v>
+        <v>1891</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10877</v>
+        <v>11040</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05973385864710198</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02312797814512337</v>
+        <v>0.02182060434011494</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1254887244628955</v>
+        <v>0.1273745915660125</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -8751,19 +8751,19 @@
         <v>15299</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8954</v>
+        <v>8752</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23839</v>
+        <v>25015</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04865861858433278</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02847679981512417</v>
+        <v>0.02783619507874811</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07581884625121449</v>
+        <v>0.07956000921762482</v>
       </c>
     </row>
     <row r="27">
@@ -8780,19 +8780,19 @@
         <v>129253</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>114679</v>
+        <v>112933</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>144579</v>
+        <v>143019</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5675392772702129</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5035500098648256</v>
+        <v>0.4958805199079283</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6348378766871537</v>
+        <v>0.6279848899595655</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>63</v>
@@ -8801,19 +8801,19 @@
         <v>68472</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>60067</v>
+        <v>61036</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>75039</v>
+        <v>75112</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7899944121180558</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6930234859323915</v>
+        <v>0.7042043246909716</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8657664592877207</v>
+        <v>0.8665981411104131</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>189</v>
@@ -8822,19 +8822,19 @@
         <v>197725</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>178713</v>
+        <v>179590</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>213534</v>
+        <v>215823</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6288629324155472</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5683967109654439</v>
+        <v>0.5711868826499175</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6791451670184044</v>
+        <v>0.686425617195297</v>
       </c>
     </row>
     <row r="28">
@@ -8855,19 +8855,19 @@
         <v>21027</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14349</v>
+        <v>13634</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30305</v>
+        <v>30327</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1952484738420796</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.133242149099851</v>
+        <v>0.1266047123739365</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.281397553493464</v>
+        <v>0.2816053710660999</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6594</v>
+        <v>6859</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02850029383695852</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09393643836204635</v>
+        <v>0.09770781759633507</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -8897,19 +8897,19 @@
         <v>23027</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15104</v>
+        <v>15636</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32151</v>
+        <v>32129</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1294482984967281</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08490734721026738</v>
+        <v>0.08789711265814046</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1807372416684759</v>
+        <v>0.1806138950852403</v>
       </c>
     </row>
     <row r="29">
@@ -8926,19 +8926,19 @@
         <v>22487</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15240</v>
+        <v>15300</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31035</v>
+        <v>31993</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2088066969329775</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1415141146014146</v>
+        <v>0.1420695499836078</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2881823116732709</v>
+        <v>0.2970789514319798</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -8947,19 +8947,19 @@
         <v>17144</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10822</v>
+        <v>10473</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24851</v>
+        <v>24992</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2442256753677401</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1541643562049788</v>
+        <v>0.1491906324605088</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.354023973568591</v>
+        <v>0.3560268119186631</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -8968,19 +8968,19 @@
         <v>39631</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>29831</v>
+        <v>29320</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>52130</v>
+        <v>51841</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2227833111994063</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1676953069163125</v>
+        <v>0.164819929817732</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.293046623105118</v>
+        <v>0.2914253793421643</v>
       </c>
     </row>
     <row r="30">
@@ -8997,19 +8997,19 @@
         <v>9915</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4863</v>
+        <v>5154</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17199</v>
+        <v>17420</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09206381842305954</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04515364240155915</v>
+        <v>0.04785618113452152</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1597079491052195</v>
+        <v>0.1617594696310985</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -9018,19 +9018,19 @@
         <v>12466</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6570</v>
+        <v>6653</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19792</v>
+        <v>20594</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1775883324021625</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09358724006834915</v>
+        <v>0.09476977216580458</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2819495136673358</v>
+        <v>0.293375943979984</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -9039,19 +9039,19 @@
         <v>22381</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13758</v>
+        <v>14316</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>32478</v>
+        <v>32613</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1258124807231704</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07734286049849558</v>
+        <v>0.0804799514070093</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1825732130734624</v>
+        <v>0.1833350239559211</v>
       </c>
     </row>
     <row r="31">
@@ -9068,19 +9068,19 @@
         <v>14872</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8893</v>
+        <v>8249</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>23604</v>
+        <v>23852</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1380927201616354</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08257280574959505</v>
+        <v>0.07659594447300476</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2191826311545581</v>
+        <v>0.2214799684200243</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>10</v>
@@ -9089,19 +9089,19 @@
         <v>11224</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5905</v>
+        <v>5984</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>18676</v>
+        <v>18892</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1598965820016748</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08412524851368269</v>
+        <v>0.08524436825335432</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2660483150213024</v>
+        <v>0.2691224421930218</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>24</v>
@@ -9110,19 +9110,19 @@
         <v>26096</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>17503</v>
+        <v>17447</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37316</v>
+        <v>36927</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1466966997207307</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09839102881346849</v>
+        <v>0.09808050760872693</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2097690111483156</v>
+        <v>0.2075864066157513</v>
       </c>
     </row>
     <row r="32">
@@ -9139,19 +9139,19 @@
         <v>5099</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2009</v>
+        <v>1820</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11927</v>
+        <v>10605</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04734927672967533</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01865189449355552</v>
+        <v>0.01689778461878175</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.110746066102186</v>
+        <v>0.0984710648763175</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -9160,19 +9160,19 @@
         <v>3819</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>932</v>
+        <v>1028</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9735</v>
+        <v>9174</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05440965732462652</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01328185897983727</v>
+        <v>0.01464267779496808</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1386875506504903</v>
+        <v>0.1306928226533236</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -9181,19 +9181,19 @@
         <v>8919</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4588</v>
+        <v>4406</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16482</v>
+        <v>16322</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05013535979899841</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02578980321583122</v>
+        <v>0.02476600634555792</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09265367425346928</v>
+        <v>0.091751881696725</v>
       </c>
     </row>
     <row r="33">
@@ -9210,19 +9210,19 @@
         <v>63891</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>53758</v>
+        <v>53317</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>73504</v>
+        <v>74515</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5932671275365111</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4991750985723494</v>
+        <v>0.4950840011424308</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6825341135429907</v>
+        <v>0.6919224462201963</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>41</v>
@@ -9231,19 +9231,19 @@
         <v>44876</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>36683</v>
+        <v>36434</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>52127</v>
+        <v>52756</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6392921606422413</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5225677068707487</v>
+        <v>0.5190224093547972</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7425805003636412</v>
+        <v>0.7515384704172391</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>104</v>
@@ -9252,19 +9252,19 @@
         <v>108766</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>95163</v>
+        <v>95064</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>121274</v>
+        <v>120924</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6114289764306918</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5349582229480683</v>
+        <v>0.5344032402355511</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6817375033097985</v>
+        <v>0.6797730502999022</v>
       </c>
     </row>
     <row r="34">
@@ -9298,19 +9298,19 @@
         <v>3171</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8413</v>
+        <v>8383</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08774337642492669</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02806780867083843</v>
+        <v>0.02820297225577218</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2328306416649172</v>
+        <v>0.2319892782355352</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -9319,19 +9319,19 @@
         <v>3171</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8470</v>
+        <v>7610</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07602395983125354</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02421544985543686</v>
+        <v>0.02442475915060003</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2030901592088686</v>
+        <v>0.1824634522320506</v>
       </c>
     </row>
     <row r="35">
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4343</v>
+        <v>4518</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2037061946143998</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7796465272050606</v>
+        <v>0.8111822778695094</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -9369,19 +9369,19 @@
         <v>6247</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2715</v>
+        <v>2987</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12373</v>
+        <v>12309</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1728799852971557</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07514290334239083</v>
+        <v>0.08266360099522727</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3424112420573468</v>
+        <v>0.3406473562086775</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -9390,19 +9390,19 @@
         <v>7382</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3219</v>
+        <v>3139</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13431</v>
+        <v>13495</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1769972782907944</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07719406479401157</v>
+        <v>0.07525588989390647</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3220452494310887</v>
+        <v>0.3235720926189633</v>
       </c>
     </row>
     <row r="36">
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4607</v>
+        <v>4609</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.227501104802898</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.827095599054511</v>
+        <v>0.8275560803511463</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6838</v>
+        <v>6958</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05438305202349333</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1892377942276801</v>
+        <v>0.1925617707880977</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -9461,19 +9461,19 @@
         <v>3232</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8545</v>
+        <v>8816</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07750551052773404</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02203672963164867</v>
+        <v>0.02230697572682604</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2048835705697242</v>
+        <v>0.2113727079361571</v>
       </c>
     </row>
     <row r="37">
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5610</v>
+        <v>5702</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05153858344335389</v>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1552503207828016</v>
+        <v>0.157783949600753</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5879</v>
+        <v>6642</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0446548486860388</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1409523153760068</v>
+        <v>0.1592518501382705</v>
       </c>
     </row>
     <row r="38">
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>7197</v>
+        <v>7061</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05561653908371544</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1991653669851838</v>
+        <v>0.1953995501574122</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7176</v>
+        <v>6941</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04818813345838553</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1720596824859158</v>
+        <v>0.1664239351271396</v>
       </c>
     </row>
     <row r="39">
@@ -9616,7 +9616,7 @@
         <v>3168</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>5570</v>
@@ -9625,7 +9625,7 @@
         <v>0.5687927005827021</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1759928242134424</v>
+        <v>0.172904400945489</v>
       </c>
       <c r="I39" s="6" t="n">
         <v>1</v>
@@ -9637,19 +9637,19 @@
         <v>23922</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>17853</v>
+        <v>17447</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>29171</v>
+        <v>28994</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6620144211460758</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.4940541869462756</v>
+        <v>0.4828150234442893</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8072734015577894</v>
+        <v>0.8023757909305889</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>26</v>
@@ -9658,19 +9658,19 @@
         <v>27091</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>20581</v>
+        <v>21387</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>32462</v>
+        <v>33279</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.6495632912331996</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.4934788021680638</v>
+        <v>0.5127980159765989</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.778346756552431</v>
+        <v>0.79794184064416</v>
       </c>
     </row>
     <row r="40">
@@ -9691,19 +9691,19 @@
         <v>116902</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>95799</v>
+        <v>98684</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>135668</v>
+        <v>138442</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1930682975635818</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1582155950777892</v>
+        <v>0.162979913051466</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2240605516341286</v>
+        <v>0.2286424064488473</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>29</v>
@@ -9712,19 +9712,19 @@
         <v>30075</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>20391</v>
+        <v>21091</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>40892</v>
+        <v>41965</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08990450195864255</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06095407678971579</v>
+        <v>0.06304824885368995</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1222386176603383</v>
+        <v>0.1254483385678384</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>142</v>
@@ -9733,19 +9733,19 @@
         <v>146977</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>124361</v>
+        <v>123854</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>170806</v>
+        <v>170553</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.156355491485729</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1322965311322175</v>
+        <v>0.1317571091035711</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1817043583254465</v>
+        <v>0.1814352674603215</v>
       </c>
     </row>
     <row r="41">
@@ -9762,19 +9762,19 @@
         <v>95051</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>77311</v>
+        <v>77603</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>112975</v>
+        <v>115216</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1569808661171471</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.127683014659122</v>
+        <v>0.1281642072574909</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.186582573894296</v>
+        <v>0.1902844161596026</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>44</v>
@@ -9783,19 +9783,19 @@
         <v>45732</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>32931</v>
+        <v>33915</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>59398</v>
+        <v>58818</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1367082572573021</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0984403491097805</v>
+        <v>0.1013826970510724</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1775583025011556</v>
+        <v>0.1758249583447293</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>138</v>
@@ -9804,19 +9804,19 @@
         <v>140783</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>121012</v>
+        <v>120621</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>164578</v>
+        <v>162270</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.149766471247325</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1287338292095281</v>
+        <v>0.1283176954448899</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1750793087738861</v>
+        <v>0.1726246955277586</v>
       </c>
     </row>
     <row r="42">
@@ -9833,19 +9833,19 @@
         <v>57326</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>44650</v>
+        <v>43289</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>72817</v>
+        <v>73200</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.09467637602070376</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07374173301770416</v>
+        <v>0.07149427536276004</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1202609059253611</v>
+        <v>0.1208931596728652</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>40</v>
@@ -9854,19 +9854,19 @@
         <v>43260</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>31550</v>
+        <v>31740</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>56861</v>
+        <v>57127</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1293183243891388</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09431173979282347</v>
+        <v>0.0948796905607439</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1699748386228034</v>
+        <v>0.1707711112501772</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>95</v>
@@ -9875,19 +9875,19 @@
         <v>100586</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>83243</v>
+        <v>83042</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>121651</v>
+        <v>121139</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.107004374667435</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08855476397304479</v>
+        <v>0.08834074115931641</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1294137658025017</v>
+        <v>0.1288682851510209</v>
       </c>
     </row>
     <row r="43">
@@ -9904,19 +9904,19 @@
         <v>72502</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>57063</v>
+        <v>57075</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>90609</v>
+        <v>89798</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1197402863387319</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.09424151453348434</v>
+        <v>0.0942619723759392</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1496453034013629</v>
+        <v>0.1483043487516094</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>27</v>
@@ -9925,19 +9925,19 @@
         <v>27462</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>18069</v>
+        <v>18311</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>38322</v>
+        <v>38709</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08209299139065833</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05401300734576368</v>
+        <v>0.05473736008776667</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1145559216382596</v>
+        <v>0.1157126148914207</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>94</v>
@@ -9946,19 +9946,19 @@
         <v>99964</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>82337</v>
+        <v>81991</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>121673</v>
+        <v>119380</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1063427777391338</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.08759102525782519</v>
+        <v>0.08722292300202365</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1294368599174573</v>
+        <v>0.1269977989589943</v>
       </c>
     </row>
     <row r="44">
@@ -9975,19 +9975,19 @@
         <v>30384</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>20479</v>
+        <v>21252</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>42101</v>
+        <v>44166</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05018046349868707</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0338216377445566</v>
+        <v>0.03509895880268631</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06953077507145611</v>
+        <v>0.07294218304500849</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>16</v>
@@ -9996,19 +9996,19 @@
         <v>16107</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>9940</v>
+        <v>9109</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>25799</v>
+        <v>25392</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.04814814304281671</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02971511934527063</v>
+        <v>0.02723113210083992</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.07712226669451901</v>
+        <v>0.0759037567799254</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>45</v>
@@ -10017,19 +10017,19 @@
         <v>46491</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>34658</v>
+        <v>34740</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>61792</v>
+        <v>62079</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.04945722346717305</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03686896705574332</v>
+        <v>0.03695714142563422</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.06573527394613204</v>
+        <v>0.06604018040718482</v>
       </c>
     </row>
     <row r="45">
@@ -10046,19 +10046,19 @@
         <v>364322</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>339884</v>
+        <v>340352</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>390273</v>
+        <v>388137</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.6016936031039624</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5613329628371764</v>
+        <v>0.5621053924015181</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6445516568805778</v>
+        <v>0.6410244520973802</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>217</v>
@@ -10067,19 +10067,19 @@
         <v>232996</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>216004</v>
+        <v>216965</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>249539</v>
+        <v>249854</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.6964996534392395</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.6457051564187604</v>
+        <v>0.6485779310273502</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.7459526341260181</v>
+        <v>0.7468940159557447</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>570</v>
@@ -10088,19 +10088,19 @@
         <v>597318</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>567220</v>
+        <v>565400</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>624158</v>
+        <v>626539</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.6354321459770353</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.603413168456738</v>
+        <v>0.6014770191354532</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.6639843516895996</v>
+        <v>0.6665170444721702</v>
       </c>
     </row>
     <row r="46">
